--- a/학습자료/단답형/객관식_한국사_대조_여러 나라 구분.xlsx
+++ b/학습자료/단답형/객관식_한국사_대조_여러 나라 구분.xlsx
@@ -449,14 +449,14 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>만주 송화강 유역의 평야 지대
-1. 옥저, 동예
-2. 옥저
-3. 부여</t>
+1. 부여
+2. 고구려
+3. 옥저, 동예</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3, 부여</t>
+          <t>1, 부여</t>
         </is>
       </c>
     </row>
@@ -464,71 +464,71 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>졸본 → 국내성
+1. 부여
+2. 삼한
+3. 고구려</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3, 고구려</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>함경도 함흥평야
+1. 삼한
+2. 옥저
+3. 옥저, 동예</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2, 옥저</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>강원도 북부
 1. 옥저
 2. 고구려
 3. 동예</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2, 고구려</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>함경도 함흥평야
-1. 옥저, 동예
-2. 고구려
-3. 옥저</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>3, 옥저</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>강원도 북부
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3, 동예</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>한강 남쪽
+1. 고구려
+2. 삼한
+3. 동예</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2, 삼한</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>5부족 연맹, 마가, 우가, 저가, 구가 → 사출도 지배
 1. 부여
 2. 동예
 3. 옥저</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2, 동예</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>한강 남쪽
-1. 부여
-2. 삼한
-3. 고구려</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2, 삼한</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>5부족 연맹, 마가, 우가, 저가, 구가 → 사출도 지배
-1. 부여
-2. 옥저
-3. 옥저, 동예</t>
-        </is>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>1, 부여</t>
@@ -539,9 +539,9 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>5부족 연맹체, 제가 회의
-1. 부여
+1. 옥저
 2. 고구려
-3. 동예</t>
+3. 옥저, 동예</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -554,8 +554,8 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>왕 없이 군장이 다스림(읍군, 삼로)
-1. 고구려
-2. 옥저
+1. 옥저
+2. 부여
 3. 옥저, 동예</t>
         </is>
       </c>
@@ -569,89 +569,89 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>제정분리, 목지국의 영도
+1. 동예
+2. 부여
+3. 삼한</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3, 삼한</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>농경, 목축(반농반목), 특산물(말, 주옥, 모피)
+1. 동예
+2. 부여
+3. 고구려</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2, 부여</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>산악지대, 토지 척박 → 약탈 경제
+1. 부여
+2. 동예
+3. 고구려</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3, 고구려</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>어물, 소금이 풍부
+1. 옥저
+2. 부여
+3. 삼한</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1, 옥저</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>단궁, 과하마, 반어피
+1. 동예
+2. 부여
+3. 옥저, 동예</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1, 동예</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>농경 발달, 철 생산
 1. 옥저, 동예
 2. 삼한
-3. 옥저</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
+3. 부여</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>2, 삼한</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>농경, 목축(반농반목), 특산물(말, 주옥, 모피)
-1. 삼한
-2. 옥저
-3. 부여</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>3, 부여</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>산악지대, 토지 척박 → 약탈 경제
-1. 고구려
-2. 옥저, 동예
-3. 삼한</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1, 고구려</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>어물, 소금이 풍부
-1. 동예
-2. 삼한
-3. 옥저</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>3, 옥저</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>단궁, 과하마, 반어피
-1. 옥저, 동예
-2. 동예
-3. 고구려</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2, 동예</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>농경 발달, 철 생산
-1. 옥저
-2. 옥저, 동예
-3. 삼한</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>3, 삼한</t>
         </is>
       </c>
     </row>
@@ -659,14 +659,14 @@
       <c r="A16" t="inlineStr">
         <is>
           <t>12월 영고
-1. 부여
-2. 동예
+1. 고구려
+2. 부여
 3. 삼한</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1, 부여</t>
+          <t>2, 부여</t>
         </is>
       </c>
     </row>
@@ -674,14 +674,14 @@
       <c r="A17" t="inlineStr">
         <is>
           <t>10월 동맹
-1. 부여
-2. 옥저
-3. 고구려</t>
+1. 고구려
+2. 동예
+3. 부여</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3, 고구려</t>
+          <t>1, 고구려</t>
         </is>
       </c>
     </row>
@@ -689,29 +689,29 @@
       <c r="A18" t="inlineStr">
         <is>
           <t>10월 무천
+1. 옥저
+2. 삼한
+3. 동예</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>3, 동예</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>5월 수릿날, 10월 계절제
 1. 동예
 2. 고구려
-3. 옥저, 동예</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>1, 동예</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>5월 수릿날, 10월 계절제
-1. 삼한
-2. 옥저
-3. 옥저, 동예</t>
+3. 삼한</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1, 삼한</t>
+          <t>3, 삼한</t>
         </is>
       </c>
     </row>
